--- a/WI B List.xlsx
+++ b/WI B List.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Departments\Cataloging\Students\Kelsey\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Collections &amp; Processing\WineInst\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,21 +32,12 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Forest land at the top of this California hill has been cleared to make room for wine vineyears</t>
-  </si>
-  <si>
     <t>A California hillside vineyard framed by flowers</t>
   </si>
   <si>
     <t>B-020c</t>
   </si>
   <si>
-    <t>B-00c</t>
-  </si>
-  <si>
-    <t>Max Yavno.  Vinyards are carved from the wooded slopes and peaks of northern California hills</t>
-  </si>
-  <si>
     <t>B-021c</t>
   </si>
   <si>
@@ -80,9 +71,6 @@
     <t>B-052c</t>
   </si>
   <si>
-    <t>Max Yavno.  Autumn nights turn the leaves of this California vine almost the color of the table wines produced from its grapes</t>
-  </si>
-  <si>
     <t>B-053c</t>
   </si>
   <si>
@@ -404,9 +392,6 @@
     <t>B-400c</t>
   </si>
   <si>
-    <t>A tall tree swarfs a vineyard in various stages of development</t>
-  </si>
-  <si>
     <t>B-401c</t>
   </si>
   <si>
@@ -521,9 +506,6 @@
     <t>B-464c</t>
   </si>
   <si>
-    <t>A cAlifornia vineyard located next to a winery in a new winegrowing area</t>
-  </si>
-  <si>
     <t>B-470c</t>
   </si>
   <si>
@@ -630,6 +612,24 @@
   </si>
   <si>
     <t>Winter sunshine glints past the mountains onto a California vineyard</t>
+  </si>
+  <si>
+    <t>Forest land at the top of this California hill has been cleared to make room for wine vineyards</t>
+  </si>
+  <si>
+    <t>A tall tree dwarfs a vineyard in various stages of development</t>
+  </si>
+  <si>
+    <t>A California vineyard located next to a winery in a new winegrowing area</t>
+  </si>
+  <si>
+    <t>Autumn nights turn the leaves of this California vine almost the color of the table wines produced from its grapes</t>
+  </si>
+  <si>
+    <t>Vineyards are carved from the wooded slopes and peaks of northern California hills</t>
+  </si>
+  <si>
+    <t>B-000c</t>
   </si>
 </sst>
 </file>
@@ -949,8 +949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="A122" sqref="A122"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,962 +968,962 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>201</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B32" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B35" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B36" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B38" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B39" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B40" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B41" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B42" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B43" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B44" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B45" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B46" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B47" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B48" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B49" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B50" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B51" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B52" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B53" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B54" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B55" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B56" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B57" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B58" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B59" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B60" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B61" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B62" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B63" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B64" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B65" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B66" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B67" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B68" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B69" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B70" t="s">
-        <v>126</v>
+        <v>197</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B71" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B72" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B73" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B74" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B75" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B76" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B77" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B78" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B79" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B80" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B81" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B82" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B83" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B84" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B85" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B86" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B87" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B88" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B89" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B90" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B91" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B92" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B93" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B94" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B95" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B96" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B97" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B98" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B99" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B100" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B101" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B102" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B103" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B104" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B105" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B106" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B107" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B108" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B109" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B110" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B111" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B112" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B113" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B114" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B115" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B116" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B117" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B118" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B119" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B120" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B121" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/WI B List.xlsx
+++ b/WI B List.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="201">
   <si>
     <t>Number</t>
   </si>
@@ -131,9 +131,6 @@
     <t>A sweeping hillside vineyard in California</t>
   </si>
   <si>
-    <t>B-124c</t>
-  </si>
-  <si>
     <t>A California vineyard in the spring</t>
   </si>
   <si>
@@ -170,12 +167,6 @@
     <t>Rolling foothills burst with the color of the fall vineyards</t>
   </si>
   <si>
-    <t>B-151c</t>
-  </si>
-  <si>
-    <t>Old, gnarled grapevines stand dormant under winter skies in a California vineyard</t>
-  </si>
-  <si>
     <t>B-152c</t>
   </si>
   <si>
@@ -233,9 +224,6 @@
     <t>B-222c</t>
   </si>
   <si>
-    <t>Avineyard of young vines in California</t>
-  </si>
-  <si>
     <t>B-223c</t>
   </si>
   <si>
@@ -395,9 +383,6 @@
     <t>B-401c</t>
   </si>
   <si>
-    <t>A discussed old wine press is framed by an equally old hillside vineyard in California</t>
-  </si>
-  <si>
     <t>B-402c</t>
   </si>
   <si>
@@ -630,6 +615,18 @@
   </si>
   <si>
     <t>B-000c</t>
+  </si>
+  <si>
+    <t>See also B-155</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>A vineyard of young vines in California</t>
+  </si>
+  <si>
+    <t>A disused old wine press is framed by an equally old hillside vineyard in California</t>
   </si>
 </sst>
 </file>
@@ -947,34 +944,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B121"/>
+  <dimension ref="A1:C121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="163.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="97.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -982,15 +982,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -998,7 +998,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1038,15 +1038,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1142,257 +1142,244 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" t="s">
-        <v>36</v>
-      </c>
-    </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" t="s">
         <v>40</v>
-      </c>
-      <c r="B28" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" t="s">
         <v>42</v>
-      </c>
-      <c r="B29" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" t="s">
         <v>44</v>
-      </c>
-      <c r="B30" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" t="s">
         <v>46</v>
       </c>
-      <c r="B31" t="s">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B33" t="s">
         <v>48</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C33" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B34" t="s">
         <v>50</v>
       </c>
-      <c r="B33" t="s">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B35" t="s">
         <v>52</v>
       </c>
-      <c r="B34" t="s">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B36" t="s">
         <v>54</v>
       </c>
-      <c r="B35" t="s">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B37" t="s">
         <v>56</v>
       </c>
-      <c r="B36" t="s">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B38" t="s">
         <v>58</v>
       </c>
-      <c r="B37" t="s">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B39" t="s">
         <v>60</v>
       </c>
-      <c r="B38" t="s">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="B40" t="s">
         <v>62</v>
       </c>
-      <c r="B39" t="s">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="B41" t="s">
         <v>64</v>
       </c>
-      <c r="B40" t="s">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="B42" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>66</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B43" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>68</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B44" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>70</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B45" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>72</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B46" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>74</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B47" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>76</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B48" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>78</v>
-      </c>
-      <c r="B47" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>80</v>
-      </c>
-      <c r="B48" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B49" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B50" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B51" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B52" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B53" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B54" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B55" t="s">
         <v>6</v>
@@ -1400,103 +1387,103 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B56" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B57" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B58" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B59" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B60" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B61" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B62" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B63" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B64" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B65" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B66" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B67" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B68" t="s">
         <v>6</v>
@@ -1504,7 +1491,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B69" t="s">
         <v>6</v>
@@ -1512,23 +1499,23 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B70" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B71" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B72" t="s">
         <v>6</v>
@@ -1536,103 +1523,103 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B73" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B74" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B75" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B76" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B77" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B78" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B79" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B80" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B81" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B82" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B83" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B84" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B85" t="s">
         <v>6</v>
@@ -1640,7 +1627,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B86" t="s">
         <v>6</v>
@@ -1648,23 +1635,23 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B87" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B88" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B89" t="s">
         <v>6</v>
@@ -1672,31 +1659,31 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B90" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B91" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B92" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B93" t="s">
         <v>6</v>
@@ -1704,7 +1691,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B94" t="s">
         <v>6</v>
@@ -1712,7 +1699,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B95" t="s">
         <v>6</v>
@@ -1720,7 +1707,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B96" t="s">
         <v>6</v>
@@ -1728,15 +1715,15 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B97" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B98" t="s">
         <v>6</v>
@@ -1744,47 +1731,47 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B99" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B100" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B101" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B102" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B103" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B104" t="s">
         <v>6</v>
@@ -1792,7 +1779,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B105" t="s">
         <v>6</v>
@@ -1800,7 +1787,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B106" t="s">
         <v>6</v>
@@ -1808,7 +1795,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B107" t="s">
         <v>6</v>
@@ -1816,7 +1803,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B108" t="s">
         <v>6</v>
@@ -1824,7 +1811,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B109" t="s">
         <v>6</v>
@@ -1832,7 +1819,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B110" t="s">
         <v>6</v>
@@ -1840,7 +1827,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B111" t="s">
         <v>6</v>
@@ -1848,7 +1835,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B112" t="s">
         <v>6</v>
@@ -1856,7 +1843,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B113" t="s">
         <v>6</v>
@@ -1864,7 +1851,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B114" t="s">
         <v>6</v>
@@ -1872,7 +1859,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B115" t="s">
         <v>6</v>
@@ -1880,7 +1867,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B116" t="s">
         <v>6</v>
@@ -1888,7 +1875,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B117" t="s">
         <v>6</v>
@@ -1896,7 +1883,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B118" t="s">
         <v>6</v>
@@ -1904,7 +1891,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B119" t="s">
         <v>6</v>
@@ -1912,7 +1899,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B120" t="s">
         <v>6</v>
@@ -1920,10 +1907,10 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B121" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
